--- a/biology/Zoologie/Callicore_atacama/Callicore_atacama.xlsx
+++ b/biology/Zoologie/Callicore_atacama/Callicore_atacama.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callicore atacama est une espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Biblidinae et du genre Callicore.
 </t>
@@ -511,16 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Callicore atacama a été décrit par William Chapman Hewitson en 1851 sous le nom initial de Catagramma atacama[1].
-Noms vernaculaires
- Callicore atacama se nomme Yellow-banded Eighty-eight en anglais[2].
-Sous-espèces
- Callicore atacama atacama présent en Équateur, en Colombie et au Pérou.
- Callicore atacama faustina (Bates, 1866); présent au Costa Rica, à Panama
- Callicore atacama folschveilleri Attal, 2008; présent au Costa Rica.
- Callicore atacama manova (Fruhstorfer, 1916); présent au Costa Rica, à Panama, en Colombie, en Équateur et au Venezuela[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callicore atacama a été décrit par William Chapman Hewitson en 1851 sous le nom initial de Catagramma atacama.
+</t>
         </is>
       </c>
     </row>
@@ -545,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Callicore atacama est un papillon d'une envergure de 47 mm à 50 mm, au dessus de couleur marron à noir avec aux ailes antérieures une large bande jaune d'or du milieu du bord costal à l'angle externe et aux ailes postérieures une large bande centrale bleu violet [3],[4].
-Le revers des ailes antérieures présente la même large bande jaune d'or que le dessus avec en plus des rayures beige à l'apex alors que les ailes postérieures sont de couleur marron à noir ornementées de rayures beige.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Callicore atacama se nomme Yellow-banded Eighty-eight en anglais.
 </t>
         </is>
       </c>
@@ -577,14 +590,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Allophylus[1].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Callicore atacama atacama présent en Équateur, en Colombie et au Pérou.
+ Callicore atacama faustina (Bates, 1866); présent au Costa Rica, à Panama
+ Callicore atacama folschveilleri Attal, 2008; présent au Costa Rica.
+ Callicore atacama manova (Fruhstorfer, 1916); présent au Costa Rica, à Panama, en Colombie, en Équateur et au Venezuela.</t>
         </is>
       </c>
     </row>
@@ -609,17 +629,124 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callicore atacama est un papillon d'une envergure de 47 mm à 50 mm, au dessus de couleur marron à noir avec aux ailes antérieures une large bande jaune d'or du milieu du bord costal à l'angle externe et aux ailes postérieures une large bande centrale bleu violet ,.
+Le revers des ailes antérieures présente la même large bande jaune d'or que le dessus avec en plus des rayures beige à l'apex alors que les ailes postérieures sont de couleur marron à noir ornementées de rayures beige.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Callicore_atacama</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_atacama</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Allophylus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Callicore_atacama</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_atacama</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Callicore atacama est présent au Costa Rica, à Panama, en Colombie, en Équateur, au Venezuela et au Pérou[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Callicore atacama est présent au Costa Rica, à Panama, en Colombie, en Équateur, au Venezuela et au Pérou.
 Sur les autres projets Wikimedia :
 Callicore atacama, sur Wikimedia CommonsCallicore atacama, sur Wikispecies
-Biotope
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Callicore_atacama</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_atacama</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
